--- a/medicine/Enfance/Mister_AZ_201/Mister_AZ_201.xlsx
+++ b/medicine/Enfance/Mister_AZ_201/Mister_AZ_201.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mister AZ 201 (titre en italien : Brivido al museo) est un roman d'Edward Jones de la série Le Trio de la Tamise, paru en 1973 en Italie et publié en France dans la Bibliothèque verte en 1983 (avec une traduction de Josette Gontier et des illustrations de François Dermaut).
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au British Museum, Ted et Dave sont les témoins du comportement étrange d'un homme qui cherche à cacher un petit sac dans un coin sombre du musée. Les deux amis s'emparent du sac, quittent le musée et, de retour chez eux, examinent son contenu : le sachet est rempli de diamants.
 Ils mettent Cathy au courant et décident d'enquêter. L'enquête les mène sur les traces du mystérieux inconnu dont ils ignorent l'identité. Comme l'homme utilise une automobile dont la plaque d'immatriculation finit par « AZ 201 », ils l'appellent, faute de mieux, « Mister AZ 201 ». Ils contactent l'homme et un rendez-vous est pris. S'étant rendus au rendez-vous sans les diamants, l'homme est furieux.
